--- a/Desarrollo/MindSoft/Gestión/AMSM-PB.xlsx
+++ b/Desarrollo/MindSoft/Gestión/AMSM-PB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Pila de Producto (Product Backlog)- MindSoft</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Diseño de la interfaz de la aplicación</t>
   </si>
   <si>
-    <t>Planificada</t>
+    <t>Hecho</t>
   </si>
   <si>
     <t>Alta</t>
@@ -105,7 +105,7 @@
     <t>Calificación del día</t>
   </si>
   <si>
-    <t>Vacío</t>
+    <t>Planificado</t>
   </si>
   <si>
     <t>AMSM-HU05</t>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Registro de estados de ánimo</t>
+  </si>
+  <si>
+    <t>Vacío</t>
   </si>
   <si>
     <t>Media</t>
@@ -911,7 +914,9 @@
       <c r="F10" s="16">
         <v>4.0</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="6">
+        <v>2.0</v>
+      </c>
       <c r="H10" s="9" t="s">
         <v>13</v>
       </c>
@@ -945,13 +950,15 @@
       <c r="D11" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="16">
         <v>3.0</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="6">
+        <v>2.0</v>
+      </c>
       <c r="H11" s="9" t="s">
         <v>13</v>
       </c>
@@ -986,14 +993,14 @@
         <v>35</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F12" s="16">
         <v>3.0</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="1"/>
@@ -1017,23 +1024,23 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F13" s="16">
         <v>3.0</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="1"/>
@@ -1057,23 +1064,23 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F14" s="16">
         <v>3.0</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="1"/>
@@ -1097,23 +1104,23 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F15" s="16">
         <v>3.0</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="1"/>
@@ -1137,23 +1144,23 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F16" s="16">
         <v>3.0</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="1"/>

--- a/Desarrollo/MindSoft/Gestión/AMSM-PB.xlsx
+++ b/Desarrollo/MindSoft/Gestión/AMSM-PB.xlsx
@@ -105,9 +105,6 @@
     <t>Calificación del día</t>
   </si>
   <si>
-    <t>Planificado</t>
-  </si>
-  <si>
     <t>AMSM-HU05</t>
   </si>
   <si>
@@ -126,7 +123,7 @@
     <t>Registro de estados de ánimo</t>
   </si>
   <si>
-    <t>Vacío</t>
+    <t>Planificado</t>
   </si>
   <si>
     <t>Media</t>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Diario de gratitud</t>
+  </si>
+  <si>
+    <t>Vacío</t>
   </si>
   <si>
     <t>AMSM-HU07</t>
@@ -908,8 +908,8 @@
       <c r="D10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>29</v>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="16">
         <v>4.0</v>
@@ -942,16 +942,16 @@
     <row r="11" ht="51.0" customHeight="1">
       <c r="A11" s="5"/>
       <c r="B11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="D11" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>29</v>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="16">
         <v>3.0</v>
@@ -984,23 +984,25 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F12" s="16">
         <v>3.0</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="6">
+        <v>3.0</v>
+      </c>
       <c r="H12" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="1"/>
@@ -1024,23 +1026,25 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="D13" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>36</v>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="16">
         <v>3.0</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="6">
+        <v>3.0</v>
+      </c>
       <c r="H13" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="1"/>
@@ -1064,23 +1068,25 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="D14" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>36</v>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F14" s="16">
         <v>3.0</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="6">
+        <v>3.0</v>
+      </c>
       <c r="H14" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="1"/>
@@ -1104,23 +1110,23 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F15" s="16">
         <v>3.0</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="1"/>
@@ -1153,14 +1159,14 @@
         <v>49</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F16" s="16">
         <v>3.0</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="1"/>

--- a/Desarrollo/MindSoft/Gestión/AMSM-PB.xlsx
+++ b/Desarrollo/MindSoft/Gestión/AMSM-PB.xlsx
@@ -138,6 +138,15 @@
     <t>Descripción del día</t>
   </si>
   <si>
+    <t>AMSM-HU07</t>
+  </si>
+  <si>
+    <t>Como usuario, quiero recibir visualizaciones estadísticas sobre mis calificaciones del día, estados de ánimo y otros datos ingresados, para poder obtener una comprensión clara y visual de mis patrones y tendencias a lo largo del tiempo.</t>
+  </si>
+  <si>
+    <t>Visualizaciones Estadísticas</t>
+  </si>
+  <si>
     <t>AMSM-HU04</t>
   </si>
   <si>
@@ -157,15 +166,6 @@
   </si>
   <si>
     <t>Vacío</t>
-  </si>
-  <si>
-    <t>AMSM-HU07</t>
-  </si>
-  <si>
-    <t>Como usuario, quiero recibir visualizaciones estadísticas sobre mis calificaciones del día, estados de ánimo y otros datos ingresados, para poder obtener una comprensión clara y visual de mis patrones y tendencias a lo largo del tiempo.</t>
-  </si>
-  <si>
-    <t>Visualizaciones Estadísticas</t>
   </si>
 </sst>
 </file>
@@ -1118,13 +1118,15 @@
       <c r="D15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>46</v>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="16">
         <v>3.0</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="6">
+        <v>3.0</v>
+      </c>
       <c r="H15" s="16" t="s">
         <v>36</v>
       </c>
@@ -1150,16 +1152,16 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="16" t="s">
         <v>49</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="F16" s="16">
         <v>3.0</v>
